--- a/Project Plan_Revised_NoAssignees.xlsx
+++ b/Project Plan_Revised_NoAssignees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joviv\Documents\College\Data Warehouse\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\IST722_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC10029D-7112-4895-9AA4-3B35F64B11A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3714698-3782-45E1-B1D0-DC53EBAB01F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{06607F7D-4FB1-405A-9017-1FD8BC13C5BE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06607F7D-4FB1-405A-9017-1FD8BC13C5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
   <si>
     <t>Project Name</t>
   </si>
@@ -246,6 +246,24 @@
   </si>
   <si>
     <t>Demo in class</t>
+  </si>
+  <si>
+    <t>Austin, Debasis, Monica</t>
+  </si>
+  <si>
+    <t>Levi</t>
+  </si>
+  <si>
+    <t>Jo/Austin</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Levi/Monica</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -582,77 +600,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -666,15 +699,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,40 +707,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -726,146 +729,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,1763 +1201,1924 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E70B5E5-1D62-42B8-9241-34C073B40E4A}">
   <dimension ref="C2:X48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC38" sqref="AC38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:X48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="7" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.578125" customWidth="1"/>
+    <col min="4" max="7" width="4.15625" customWidth="1"/>
+    <col min="13" max="13" width="10.41796875" customWidth="1"/>
+    <col min="17" max="17" width="7.578125" customWidth="1"/>
+    <col min="18" max="18" width="10.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="12"/>
-    </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C4" s="25" t="s">
+    <row r="2" spans="3:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="105"/>
+    </row>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="46" t="s">
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="20" t="s">
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="31" t="s">
+      <c r="T4" s="56"/>
+      <c r="U4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="31"/>
-      <c r="W4" s="20" t="s">
+      <c r="V4" s="67"/>
+      <c r="W4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="21"/>
-    </row>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C5" s="27" t="s">
+      <c r="X4" s="57"/>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="20" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="46" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="20" t="s">
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="31" t="s">
+      <c r="T5" s="56"/>
+      <c r="U5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="31"/>
-      <c r="W5" s="20" t="s">
+      <c r="V5" s="67"/>
+      <c r="W5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="21"/>
-    </row>
-    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C6" s="25" t="s">
+      <c r="X5" s="57"/>
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="46" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="48"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="47"/>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="31" t="s">
+      <c r="U6" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="31"/>
-      <c r="W6" s="20" t="s">
+      <c r="V6" s="67"/>
+      <c r="W6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="X6" s="21"/>
-    </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C7" s="29" t="s">
+      <c r="X6" s="57"/>
+    </row>
+    <row r="7" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="32">
-        <v>43849</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="33" t="s">
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="68">
+        <v>43839</v>
+      </c>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="32">
-        <v>43916</v>
-      </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="33" t="s">
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="68">
+        <v>43909</v>
+      </c>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="22" t="s">
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="23"/>
-    </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C8" s="24"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="23"/>
-    </row>
-    <row r="9" spans="3:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="59"/>
+    </row>
+    <row r="8" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="60"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="59"/>
+    </row>
+    <row r="9" spans="3:24" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18" t="s">
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18" t="s">
+      <c r="M9" s="54"/>
+      <c r="N9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18" t="s">
+      <c r="O9" s="54"/>
+      <c r="P9" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="54"/>
       <c r="R9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="T9" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="19"/>
-    </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C10" s="34" t="s">
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="55"/>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="36"/>
-    </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="41"/>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13" t="s">
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="16">
+      <c r="M11" s="69"/>
+      <c r="N11" s="91">
         <v>43849</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="44">
+      <c r="O11" s="69"/>
+      <c r="P11" s="95">
         <v>43852</v>
       </c>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="45">
+      <c r="Q11" s="96"/>
+      <c r="R11" s="9">
         <v>43860</v>
       </c>
       <c r="S11" s="7">
         <f>P11-N11</f>
         <v>3</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="T11" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="14"/>
-    </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="101"/>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13" t="s">
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="16">
+      <c r="M12" s="69"/>
+      <c r="N12" s="91">
         <v>43849</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="44">
+      <c r="O12" s="69"/>
+      <c r="P12" s="95">
         <v>43853</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="45">
+      <c r="Q12" s="96"/>
+      <c r="R12" s="9">
         <v>43860</v>
       </c>
       <c r="S12" s="7">
         <f t="shared" ref="S12:S14" si="0">P12-N12</f>
         <v>4</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="T12" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="14"/>
-    </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="101"/>
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13" t="s">
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="16">
+      <c r="M13" s="69"/>
+      <c r="N13" s="91">
         <v>43849</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="44">
+      <c r="O13" s="69"/>
+      <c r="P13" s="95">
         <v>43853</v>
       </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="45">
+      <c r="Q13" s="96"/>
+      <c r="R13" s="9">
         <v>43860</v>
       </c>
       <c r="S13" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="T13" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="14"/>
-    </row>
-    <row r="14" spans="3:24" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="101"/>
+    </row>
+    <row r="14" spans="3:24" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="13" t="s">
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="16">
+      <c r="M14" s="69"/>
+      <c r="N14" s="91">
         <v>43849</v>
       </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="44">
+      <c r="O14" s="69"/>
+      <c r="P14" s="95">
         <v>43855</v>
       </c>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="45">
+      <c r="Q14" s="96"/>
+      <c r="R14" s="9">
         <v>43860</v>
       </c>
       <c r="S14" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T14" s="13" t="s">
+      <c r="T14" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="14"/>
-    </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C15" s="40" t="s">
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="101"/>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="42"/>
-    </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="44"/>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13" t="s">
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="16">
+      <c r="M16" s="69"/>
+      <c r="N16" s="91">
         <v>43856</v>
       </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="44">
+      <c r="O16" s="69"/>
+      <c r="P16" s="95">
         <v>43876</v>
       </c>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="45">
+      <c r="Q16" s="96"/>
+      <c r="R16" s="9">
         <v>43881</v>
       </c>
       <c r="S16" s="7">
         <f>P16-N16</f>
         <v>20</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="T16" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="14"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="101"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13" t="s">
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="16">
+      <c r="M17" s="69"/>
+      <c r="N17" s="91">
         <v>43856</v>
       </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="44">
+      <c r="O17" s="69"/>
+      <c r="P17" s="95">
         <v>43876</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="45">
+      <c r="Q17" s="96"/>
+      <c r="R17" s="9">
         <v>43881</v>
       </c>
       <c r="S17" s="7">
         <f t="shared" ref="S17:S19" si="1">P17-N17</f>
         <v>20</v>
       </c>
-      <c r="T17" s="13" t="s">
+      <c r="T17" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="14"/>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="101"/>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="49" t="s">
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="51"/>
-      <c r="N18" s="52">
+      <c r="M18" s="32"/>
+      <c r="N18" s="49">
         <v>43876</v>
       </c>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54">
+      <c r="O18" s="50"/>
+      <c r="P18" s="18">
         <v>43877</v>
       </c>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="45">
+      <c r="Q18" s="37"/>
+      <c r="R18" s="9">
         <v>43881</v>
       </c>
       <c r="S18" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T18" s="56" t="s">
+      <c r="T18" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="58"/>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="53"/>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13" t="s">
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="16">
+      <c r="M19" s="69"/>
+      <c r="N19" s="91">
         <v>43876</v>
       </c>
-      <c r="O19" s="13"/>
-      <c r="P19" s="44">
+      <c r="O19" s="69"/>
+      <c r="P19" s="95">
         <v>43878</v>
       </c>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="45">
+      <c r="Q19" s="96"/>
+      <c r="R19" s="9">
         <v>43881</v>
       </c>
       <c r="S19" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T19" s="13" t="s">
+      <c r="T19" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="14"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C20" s="40" t="s">
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="101"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="42"/>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C21" s="93" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="44"/>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="69">
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="76">
         <f>N22</f>
         <v>43882</v>
       </c>
-      <c r="O21" s="70"/>
-      <c r="P21" s="71">
+      <c r="O21" s="20"/>
+      <c r="P21" s="77">
         <f>P25</f>
         <v>43890</v>
       </c>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="73">
+      <c r="Q21" s="78"/>
+      <c r="R21" s="10">
         <f>R22</f>
         <v>43902</v>
       </c>
-      <c r="S21" s="74">
+      <c r="S21" s="11">
         <f t="shared" ref="S21:S48" si="2">P21-N21</f>
         <v>8</v>
       </c>
-      <c r="T21" s="70" t="s">
+      <c r="T21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="87"/>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="21"/>
+    </row>
+    <row r="22" spans="3:24" ht="30.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="60">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="M22" s="70"/>
+      <c r="N22" s="92">
         <v>43882</v>
       </c>
-      <c r="O22" s="43"/>
-      <c r="P22" s="44">
+      <c r="O22" s="22"/>
+      <c r="P22" s="95">
         <v>43889</v>
       </c>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="45">
+      <c r="Q22" s="96"/>
+      <c r="R22" s="9">
         <v>43902</v>
       </c>
       <c r="S22" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="T22" s="43" t="s">
+      <c r="T22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="94"/>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="23"/>
+    </row>
+    <row r="23" spans="3:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="60">
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" s="70"/>
+      <c r="N23" s="92">
         <v>43882</v>
       </c>
-      <c r="O23" s="43"/>
-      <c r="P23" s="44">
+      <c r="O23" s="22"/>
+      <c r="P23" s="95">
         <v>43889</v>
       </c>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="45">
+      <c r="Q23" s="96"/>
+      <c r="R23" s="9">
         <v>43902</v>
       </c>
       <c r="S23" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="T23" s="43" t="s">
+      <c r="T23" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="94"/>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="23"/>
+    </row>
+    <row r="24" spans="3:24" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="60">
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="70"/>
+      <c r="N24" s="92">
         <v>43882</v>
       </c>
-      <c r="O24" s="43"/>
-      <c r="P24" s="44">
+      <c r="O24" s="22"/>
+      <c r="P24" s="95">
         <v>43889</v>
       </c>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="45">
+      <c r="Q24" s="96"/>
+      <c r="R24" s="9">
         <v>43902</v>
       </c>
       <c r="S24" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="T24" s="43" t="s">
+      <c r="T24" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="94"/>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="23"/>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="60">
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="69"/>
+      <c r="N25" s="92">
         <v>43882</v>
       </c>
-      <c r="O25" s="43"/>
-      <c r="P25" s="44">
+      <c r="O25" s="22"/>
+      <c r="P25" s="95">
         <v>43890</v>
       </c>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="45">
+      <c r="Q25" s="96"/>
+      <c r="R25" s="9">
         <v>43902</v>
       </c>
       <c r="S25" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="T25" s="43" t="s">
+      <c r="T25" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="94"/>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C26" s="93" t="s">
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="23"/>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="77">
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="33">
         <f>N27</f>
         <v>43891</v>
       </c>
-      <c r="O26" s="78"/>
-      <c r="P26" s="79">
+      <c r="O26" s="85"/>
+      <c r="P26" s="16">
         <f>P28</f>
         <v>43898</v>
       </c>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="81">
+      <c r="Q26" s="36"/>
+      <c r="R26" s="12">
         <v>43902</v>
       </c>
-      <c r="S26" s="82">
+      <c r="S26" s="13">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="T26" s="70" t="s">
+      <c r="T26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="U26" s="70"/>
-      <c r="V26" s="70"/>
-      <c r="W26" s="70"/>
-      <c r="X26" s="87"/>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="21"/>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="65">
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="32"/>
+      <c r="N27" s="35">
         <v>43891</v>
       </c>
-      <c r="O27" s="66"/>
-      <c r="P27" s="54">
+      <c r="O27" s="93"/>
+      <c r="P27" s="18">
         <v>43898</v>
       </c>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="45">
+      <c r="Q27" s="37"/>
+      <c r="R27" s="9">
         <v>43902</v>
       </c>
       <c r="S27" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="T27" s="43" t="s">
+      <c r="T27" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="94"/>
-    </row>
-    <row r="28" spans="3:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="23"/>
+    </row>
+    <row r="28" spans="3:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="65">
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="32"/>
+      <c r="N28" s="35">
         <v>43891</v>
       </c>
-      <c r="O28" s="66"/>
-      <c r="P28" s="54">
+      <c r="O28" s="93"/>
+      <c r="P28" s="18">
         <v>43898</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="45">
+      <c r="Q28" s="37"/>
+      <c r="R28" s="9">
         <v>43902</v>
       </c>
       <c r="S28" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="T28" s="43" t="s">
+      <c r="T28" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="94"/>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C29" s="37" t="s">
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="23"/>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="39"/>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C30" s="83" t="s">
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="73"/>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="69">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="76">
         <f>N31</f>
         <v>43903</v>
       </c>
-      <c r="O30" s="70"/>
-      <c r="P30" s="71">
+      <c r="O30" s="20"/>
+      <c r="P30" s="77">
         <f>P31</f>
         <v>43909</v>
       </c>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="81">
+      <c r="Q30" s="78"/>
+      <c r="R30" s="12">
         <v>43916</v>
       </c>
-      <c r="S30" s="82">
+      <c r="S30" s="13">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="T30" s="70" t="s">
+      <c r="T30" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="87"/>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="21"/>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="60">
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="69"/>
+      <c r="N31" s="92">
         <v>43903</v>
       </c>
-      <c r="O31" s="43"/>
-      <c r="P31" s="44">
+      <c r="O31" s="22"/>
+      <c r="P31" s="95">
         <v>43909</v>
       </c>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="89">
+      <c r="Q31" s="96"/>
+      <c r="R31" s="14">
         <v>43916</v>
       </c>
       <c r="S31" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="T31" s="43" t="s">
+      <c r="T31" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="94"/>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="23"/>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="60">
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="69"/>
+      <c r="N32" s="92">
         <v>43903</v>
       </c>
-      <c r="O32" s="43"/>
-      <c r="P32" s="44">
+      <c r="O32" s="22"/>
+      <c r="P32" s="95">
         <v>43909</v>
       </c>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="89">
+      <c r="Q32" s="96"/>
+      <c r="R32" s="14">
         <v>43916</v>
       </c>
       <c r="S32" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="T32" s="43" t="s">
+      <c r="T32" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="94"/>
-    </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
+    </row>
+    <row r="33" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="60">
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33" s="69"/>
+      <c r="N33" s="92">
         <v>43903</v>
       </c>
-      <c r="O33" s="43"/>
-      <c r="P33" s="44">
+      <c r="O33" s="22"/>
+      <c r="P33" s="95">
         <v>43909</v>
       </c>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="89">
+      <c r="Q33" s="96"/>
+      <c r="R33" s="14">
         <v>43916</v>
       </c>
       <c r="S33" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="T33" s="43" t="s">
+      <c r="T33" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="94"/>
-    </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="60">
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="92">
         <v>43903</v>
       </c>
-      <c r="O34" s="43"/>
-      <c r="P34" s="44">
+      <c r="O34" s="22"/>
+      <c r="P34" s="95">
         <v>43909</v>
       </c>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="89">
+      <c r="Q34" s="96"/>
+      <c r="R34" s="14">
         <v>43916</v>
       </c>
       <c r="S34" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="T34" s="43" t="s">
+      <c r="T34" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="94"/>
-    </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="23"/>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="86" t="s">
+      <c r="D35" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="101">
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="69"/>
+      <c r="N35" s="94">
         <v>43903</v>
       </c>
-      <c r="O35" s="86"/>
-      <c r="P35" s="44">
+      <c r="O35" s="87"/>
+      <c r="P35" s="95">
         <v>43909</v>
       </c>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="89">
+      <c r="Q35" s="96"/>
+      <c r="R35" s="14">
         <v>43916</v>
       </c>
       <c r="S35" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="T35" s="43" t="s">
+      <c r="T35" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="94"/>
-    </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="23"/>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="86" t="s">
+      <c r="D36" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="101">
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="69"/>
+      <c r="N36" s="94">
         <v>43903</v>
       </c>
-      <c r="O36" s="86"/>
-      <c r="P36" s="44">
+      <c r="O36" s="87"/>
+      <c r="P36" s="95">
         <v>43909</v>
       </c>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="89">
+      <c r="Q36" s="96"/>
+      <c r="R36" s="14">
         <v>43916</v>
       </c>
       <c r="S36" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="T36" s="43" t="s">
+      <c r="T36" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="94"/>
-    </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="23"/>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="86" t="s">
+      <c r="D37" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="101">
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="69"/>
+      <c r="N37" s="94">
         <v>43903</v>
       </c>
-      <c r="O37" s="86"/>
-      <c r="P37" s="44">
+      <c r="O37" s="87"/>
+      <c r="P37" s="95">
         <v>43909</v>
       </c>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="89">
+      <c r="Q37" s="96"/>
+      <c r="R37" s="14">
         <v>43916</v>
       </c>
       <c r="S37" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="T37" s="43" t="s">
+      <c r="T37" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="94"/>
-    </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="23"/>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="86" t="s">
+      <c r="D38" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="101">
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="M38" s="69"/>
+      <c r="N38" s="94">
         <v>43903</v>
       </c>
-      <c r="O38" s="86"/>
-      <c r="P38" s="44">
+      <c r="O38" s="87"/>
+      <c r="P38" s="95">
         <v>43909</v>
       </c>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="89">
+      <c r="Q38" s="96"/>
+      <c r="R38" s="14">
         <v>43916</v>
       </c>
       <c r="S38" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="T38" s="43" t="s">
+      <c r="T38" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="94"/>
-    </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C39" s="83" t="s">
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="23"/>
+    </row>
+    <row r="39" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="69">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="76">
         <f>N40</f>
         <v>43903</v>
       </c>
-      <c r="O39" s="70"/>
-      <c r="P39" s="71">
+      <c r="O39" s="20"/>
+      <c r="P39" s="77">
         <f>P40</f>
         <v>43912</v>
       </c>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="81">
+      <c r="Q39" s="78"/>
+      <c r="R39" s="12">
         <v>43916</v>
       </c>
-      <c r="S39" s="82">
+      <c r="S39" s="13">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="T39" s="70" t="s">
+      <c r="T39" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="U39" s="70"/>
-      <c r="V39" s="70"/>
-      <c r="W39" s="70"/>
-      <c r="X39" s="87"/>
-    </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="21"/>
+    </row>
+    <row r="40" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="60">
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="M40" s="69"/>
+      <c r="N40" s="92">
         <v>43903</v>
       </c>
-      <c r="O40" s="43"/>
-      <c r="P40" s="44">
+      <c r="O40" s="22"/>
+      <c r="P40" s="95">
         <v>43912</v>
       </c>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="89">
+      <c r="Q40" s="96"/>
+      <c r="R40" s="14">
         <v>43916</v>
       </c>
       <c r="S40" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="T40" s="43" t="s">
+      <c r="T40" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="94"/>
-    </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="23"/>
+    </row>
+    <row r="41" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="60">
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="M41" s="69"/>
+      <c r="N41" s="92">
         <v>43903</v>
       </c>
-      <c r="O41" s="43"/>
-      <c r="P41" s="44">
+      <c r="O41" s="22"/>
+      <c r="P41" s="95">
         <v>43912</v>
       </c>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="89">
+      <c r="Q41" s="96"/>
+      <c r="R41" s="14">
         <v>43916</v>
       </c>
       <c r="S41" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="T41" s="43" t="s">
+      <c r="T41" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="94"/>
-    </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="23"/>
+    </row>
+    <row r="42" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="60">
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" s="69"/>
+      <c r="N42" s="92">
         <v>43903</v>
       </c>
-      <c r="O42" s="43"/>
-      <c r="P42" s="44">
+      <c r="O42" s="22"/>
+      <c r="P42" s="95">
         <v>43912</v>
       </c>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="89">
+      <c r="Q42" s="96"/>
+      <c r="R42" s="14">
         <v>43916</v>
       </c>
       <c r="S42" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="T42" s="43" t="s">
+      <c r="T42" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="94"/>
-    </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="23"/>
+    </row>
+    <row r="43" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="86" t="s">
+      <c r="D43" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="60">
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" s="69"/>
+      <c r="N43" s="92">
         <v>43903</v>
       </c>
-      <c r="O43" s="43"/>
-      <c r="P43" s="44">
+      <c r="O43" s="22"/>
+      <c r="P43" s="95">
         <v>43912</v>
       </c>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="89">
+      <c r="Q43" s="96"/>
+      <c r="R43" s="14">
         <v>43916</v>
       </c>
       <c r="S43" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="T43" s="43" t="s">
+      <c r="T43" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="94"/>
-    </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="23"/>
+    </row>
+    <row r="44" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="86" t="s">
+      <c r="D44" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="60">
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="M44" s="69"/>
+      <c r="N44" s="92">
         <v>43903</v>
       </c>
-      <c r="O44" s="43"/>
-      <c r="P44" s="44">
+      <c r="O44" s="22"/>
+      <c r="P44" s="95">
         <v>43912</v>
       </c>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="89">
+      <c r="Q44" s="96"/>
+      <c r="R44" s="14">
         <v>43916</v>
       </c>
       <c r="S44" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="T44" s="43" t="s">
+      <c r="T44" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="94"/>
-    </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C45" s="83" t="s">
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="23"/>
+    </row>
+    <row r="45" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="77">
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="33">
         <f>N46</f>
         <v>43913</v>
       </c>
-      <c r="O45" s="99"/>
-      <c r="P45" s="79">
+      <c r="O45" s="34"/>
+      <c r="P45" s="16">
         <f>P46</f>
         <v>43915</v>
       </c>
-      <c r="Q45" s="100"/>
-      <c r="R45" s="81">
+      <c r="Q45" s="17"/>
+      <c r="R45" s="12">
         <v>43916</v>
       </c>
-      <c r="S45" s="82">
+      <c r="S45" s="13">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="T45" s="70" t="s">
+      <c r="T45" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="U45" s="70"/>
-      <c r="V45" s="70"/>
-      <c r="W45" s="70"/>
-      <c r="X45" s="87"/>
-    </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="21"/>
+    </row>
+    <row r="46" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="95" t="s">
+      <c r="D46" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="97"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="65">
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="M46" s="32"/>
+      <c r="N46" s="35">
         <v>43913</v>
       </c>
-      <c r="O46" s="97"/>
-      <c r="P46" s="54">
+      <c r="O46" s="29"/>
+      <c r="P46" s="18">
         <v>43915</v>
       </c>
-      <c r="Q46" s="98"/>
-      <c r="R46" s="89">
+      <c r="Q46" s="19"/>
+      <c r="R46" s="14">
         <v>43916</v>
       </c>
       <c r="S46" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="T46" s="43" t="s">
+      <c r="T46" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="43"/>
-      <c r="X46" s="94"/>
-    </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="23"/>
+    </row>
+    <row r="47" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="95" t="s">
+      <c r="D47" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="97"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="65">
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="M47" s="32"/>
+      <c r="N47" s="35">
         <v>43913</v>
       </c>
-      <c r="O47" s="97"/>
-      <c r="P47" s="54">
+      <c r="O47" s="29"/>
+      <c r="P47" s="18">
         <v>43915</v>
       </c>
-      <c r="Q47" s="98"/>
-      <c r="R47" s="89">
+      <c r="Q47" s="19"/>
+      <c r="R47" s="14">
         <v>43916</v>
       </c>
       <c r="S47" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="T47" s="43" t="s">
+      <c r="T47" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="94"/>
-    </row>
-    <row r="48" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="23"/>
+    </row>
+    <row r="48" spans="3:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C48" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="91" t="s">
+      <c r="D48" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="102">
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
+      <c r="L48" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="M48" s="90"/>
+      <c r="N48" s="97">
         <v>43913</v>
       </c>
-      <c r="O48" s="103"/>
-      <c r="P48" s="104">
+      <c r="O48" s="98"/>
+      <c r="P48" s="99">
         <v>43915</v>
       </c>
-      <c r="Q48" s="105"/>
-      <c r="R48" s="90">
+      <c r="Q48" s="100"/>
+      <c r="R48" s="15">
         <v>43916</v>
       </c>
       <c r="S48" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="T48" s="91" t="s">
+      <c r="T48" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="U48" s="91"/>
-      <c r="V48" s="91"/>
-      <c r="W48" s="91"/>
-      <c r="X48" s="92"/>
+      <c r="U48" s="86"/>
+      <c r="V48" s="86"/>
+      <c r="W48" s="86"/>
+      <c r="X48" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="209">
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="T45:X45"/>
-    <mergeCell ref="T46:X46"/>
-    <mergeCell ref="T47:X47"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="T28:X28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="C10:X10"/>
-    <mergeCell ref="C15:X15"/>
-    <mergeCell ref="C20:X20"/>
+    <mergeCell ref="T48:X48"/>
+    <mergeCell ref="C3:X3"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="T40:X40"/>
+    <mergeCell ref="T41:X41"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="T44:X44"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="T34:X34"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="T36:X36"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="T32:X32"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="D43:K43"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="P4:R4"/>
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="P6:R6"/>
@@ -2964,19 +3143,20 @@
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="H7:J7"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="C10:X10"/>
+    <mergeCell ref="C15:X15"/>
+    <mergeCell ref="C20:X20"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D9:K9"/>
     <mergeCell ref="D31:K31"/>
     <mergeCell ref="D32:K32"/>
     <mergeCell ref="D16:K16"/>
@@ -2987,141 +3167,21 @@
     <mergeCell ref="C29:X29"/>
     <mergeCell ref="C21:K21"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="D48:K48"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="D43:K43"/>
-    <mergeCell ref="D44:K44"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="T48:X48"/>
-    <mergeCell ref="C3:X3"/>
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="T40:X40"/>
-    <mergeCell ref="T41:X41"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="T44:X44"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="T34:X34"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="T36:X36"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="T30:X30"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="T32:X32"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="T45:X45"/>
+    <mergeCell ref="T46:X46"/>
+    <mergeCell ref="T47:X47"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
